--- a/E-boighar_testcase.xlsx
+++ b/E-boighar_testcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA B-16\Eboighar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA B-16\all_project_git\Eboighar testing\E-boighar-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="249">
-  <si>
-    <t>TEST CASE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
   <si>
     <t>PASS</t>
   </si>
@@ -634,15 +631,6 @@
     <t>Validate Password field to check strong or not.</t>
   </si>
   <si>
-    <t>Tc-09</t>
-  </si>
-  <si>
-    <t>TC-08</t>
-  </si>
-  <si>
-    <t>TC-07</t>
-  </si>
-  <si>
     <t>TC-06</t>
   </si>
   <si>
@@ -996,6 +984,39 @@
   </si>
   <si>
     <t>TC-SU-19</t>
+  </si>
+  <si>
+    <t>TC-LOG-002</t>
+  </si>
+  <si>
+    <t>TC-LOG-001</t>
+  </si>
+  <si>
+    <t>TC-LOG-03</t>
+  </si>
+  <si>
+    <t>TC-LOG-04</t>
+  </si>
+  <si>
+    <t>TC-LOG-05</t>
+  </si>
+  <si>
+    <t>TC-LOG-06</t>
+  </si>
+  <si>
+    <t>TC-LOG-07</t>
+  </si>
+  <si>
+    <t>TC-LOG-08</t>
+  </si>
+  <si>
+    <t>TC-LOG-09</t>
+  </si>
+  <si>
+    <t>TEST CASE (SignIn)</t>
+  </si>
+  <si>
+    <t>TEST CASE (LogIn)</t>
   </si>
 </sst>
 </file>
@@ -3010,6 +3031,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3074,18 +3107,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3683,8 +3704,8 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119:C124"/>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3707,23 +3728,23 @@
   <sheetData>
     <row r="1" spans="1:29" s="139" customFormat="1" ht="15" customHeight="1">
       <c r="F1" s="264" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="265"/>
     </row>
     <row r="2" spans="1:29" s="139" customFormat="1" ht="15" customHeight="1">
       <c r="D2" s="262" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="263"/>
       <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:29" s="139" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="171"/>
     </row>
@@ -3732,10 +3753,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="172"/>
       <c r="G4" s="1"/>
@@ -3744,7 +3765,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="298" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="M4" s="299"/>
       <c r="N4" s="4"/>
@@ -3769,10 +3790,10 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="172"/>
       <c r="G5" s="1"/>
@@ -3781,7 +3802,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6">
         <f>COUNTIF(L12:L465, "Passed")</f>
@@ -3809,7 +3830,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="145"/>
       <c r="F6" s="172"/>
@@ -3819,7 +3840,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
       <c r="L6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
         <f>COUNTIF(L12:L465, "Failed")</f>
@@ -3847,7 +3868,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="145"/>
       <c r="F7" s="172"/>
@@ -3857,7 +3878,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="6">
         <f>COUNTIF(L11:L465, "Not Executed")</f>
@@ -3885,7 +3906,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="164" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="165"/>
       <c r="F8" s="172"/>
@@ -3895,7 +3916,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
       <c r="L8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6">
         <f>COUNTIF(L11:L465, "Out of Scope")</f>
@@ -3923,10 +3944,10 @@
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="172"/>
       <c r="G9" s="1"/>
@@ -3965,7 +3986,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
       <c r="L10" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12">
         <f>SUM(M5:M8)</f>
@@ -3990,43 +4011,43 @@
     </row>
     <row r="11" spans="1:29" s="149" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="C11" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="D11" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="E11" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="F11" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="G11" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="H11" s="147" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="147" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="147" t="s">
+      <c r="K11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="147" t="s">
+      <c r="L11" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="147" t="s">
+      <c r="M11" s="147" t="s">
         <v>15</v>
-      </c>
-      <c r="M11" s="147" t="s">
-        <v>16</v>
       </c>
       <c r="N11" s="148"/>
       <c r="O11" s="148"/>
@@ -4047,36 +4068,36 @@
     </row>
     <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="273" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="275" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="201" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="246" t="s">
+      <c r="F12" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="305" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" s="246" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H12" s="246" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="213" t="s">
         <v>91</v>
-      </c>
-      <c r="I12" s="213" t="s">
-        <v>92</v>
       </c>
       <c r="J12" s="280"/>
       <c r="K12" s="283"/>
       <c r="L12" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="143"/>
       <c r="N12" s="4"/>
@@ -4284,34 +4305,34 @@
     </row>
     <row r="19" spans="1:29" ht="114">
       <c r="A19" s="152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="266" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="150" t="s">
+      <c r="F19" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="178" t="s">
+      <c r="G19" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="150" t="s">
+      <c r="I19" s="150" t="s">
         <v>97</v>
-      </c>
-      <c r="I19" s="150" t="s">
-        <v>98</v>
       </c>
       <c r="J19" s="141"/>
       <c r="K19" s="140"/>
       <c r="L19" s="151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="4"/>
@@ -4333,30 +4354,30 @@
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1">
       <c r="A20" s="243" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" s="266"/>
       <c r="C20" s="217"/>
       <c r="D20" s="266"/>
       <c r="E20" s="247" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="250" t="s">
+      <c r="G20" s="310" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="310" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="247" t="s">
+      <c r="I20" s="267" t="s">
         <v>101</v>
-      </c>
-      <c r="I20" s="267" t="s">
-        <v>102</v>
       </c>
       <c r="J20" s="219"/>
       <c r="K20" s="247"/>
       <c r="L20" s="217" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="4"/>
@@ -4533,32 +4554,32 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
       <c r="A26" s="201" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B26" s="202"/>
       <c r="C26" s="202"/>
       <c r="D26" s="266"/>
       <c r="E26" s="269" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="287" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="287" t="s">
+      <c r="G26" s="269" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="269" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="269" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="269" t="s">
-        <v>105</v>
-      </c>
       <c r="I26" s="267" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J26" s="286" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K26" s="240"/>
       <c r="L26" s="216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="4"/>
@@ -4766,32 +4787,32 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1">
       <c r="A33" s="201" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B33" s="202"/>
       <c r="C33" s="202"/>
       <c r="D33" s="266"/>
       <c r="E33" s="269" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="287" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="269" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="269" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="269" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="269" t="s">
+      <c r="I33" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="246" t="s">
-        <v>110</v>
-      </c>
       <c r="J33" s="286" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K33" s="240"/>
       <c r="L33" s="198" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="4"/>
@@ -4999,30 +5020,30 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
       <c r="A40" s="201" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B40" s="202"/>
       <c r="C40" s="202"/>
       <c r="D40" s="266"/>
       <c r="E40" s="246" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="246" t="s">
-        <v>113</v>
-      </c>
       <c r="G40" s="246" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H40" s="246" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="246" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J40" s="240"/>
       <c r="K40" s="240"/>
       <c r="L40" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40" s="4"/>
@@ -5199,32 +5220,32 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
       <c r="A46" s="201" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B46" s="202"/>
       <c r="C46" s="202"/>
       <c r="D46" s="253" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="247" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="247" t="s">
+      <c r="F46" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="277" t="s">
+      <c r="G46" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="246" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="246" t="s">
         <v>116</v>
-      </c>
-      <c r="G46" s="246" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="246" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="246" t="s">
-        <v>117</v>
       </c>
       <c r="J46" s="240"/>
       <c r="K46" s="240"/>
       <c r="L46" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M46" s="27"/>
       <c r="N46" s="4"/>
@@ -5401,30 +5422,30 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
       <c r="A52" s="243" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B52" s="202"/>
       <c r="C52" s="202"/>
       <c r="D52" s="253"/>
       <c r="E52" s="244" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="246" t="s">
+      <c r="G52" s="249" t="s">
         <v>120</v>
       </c>
-      <c r="G52" s="249" t="s">
-        <v>121</v>
-      </c>
       <c r="H52" s="251" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="244" t="s">
         <v>124</v>
-      </c>
-      <c r="I52" s="244" t="s">
-        <v>125</v>
       </c>
       <c r="J52" s="240"/>
       <c r="K52" s="240"/>
       <c r="L52" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M52" s="27"/>
       <c r="N52" s="4"/>
@@ -5601,30 +5622,30 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="243" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B58" s="202"/>
       <c r="C58" s="202"/>
       <c r="D58" s="253"/>
       <c r="E58" s="254" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="244" t="s">
+      <c r="G58" s="314" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="315" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="314" t="s">
-        <v>203</v>
-      </c>
-      <c r="H58" s="315" t="s">
+      <c r="I58" s="254" t="s">
         <v>128</v>
-      </c>
-      <c r="I58" s="254" t="s">
-        <v>129</v>
       </c>
       <c r="J58" s="256"/>
       <c r="K58" s="259"/>
       <c r="L58" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M58" s="26"/>
       <c r="N58" s="4"/>
@@ -5801,32 +5822,32 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="243" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B64" s="202"/>
       <c r="C64" s="202"/>
       <c r="D64" s="317" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="318" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="254" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="251" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="318" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="318" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="254" t="s">
-        <v>140</v>
-      </c>
-      <c r="G64" s="251" t="s">
-        <v>204</v>
-      </c>
-      <c r="H64" s="318" t="s">
+      <c r="I64" s="254" t="s">
         <v>131</v>
-      </c>
-      <c r="I64" s="254" t="s">
-        <v>132</v>
       </c>
       <c r="J64" s="256"/>
       <c r="K64" s="240"/>
       <c r="L64" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M64" s="27"/>
       <c r="N64" s="4"/>
@@ -6003,30 +6024,30 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="216" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B70" s="202"/>
       <c r="C70" s="202"/>
       <c r="D70" s="317"/>
       <c r="E70" s="246" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="267" t="s">
+      <c r="G70" s="320" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" s="246" t="s">
         <v>135</v>
       </c>
-      <c r="G70" s="320" t="s">
-        <v>205</v>
-      </c>
-      <c r="H70" s="246" t="s">
+      <c r="I70" s="267" t="s">
         <v>136</v>
-      </c>
-      <c r="I70" s="267" t="s">
-        <v>137</v>
       </c>
       <c r="J70" s="240"/>
       <c r="K70" s="240"/>
       <c r="L70" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M70" s="25"/>
       <c r="N70" s="4"/>
@@ -6234,30 +6255,30 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="323" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B77" s="326"/>
       <c r="C77" s="327"/>
       <c r="D77" s="317"/>
       <c r="E77" s="247" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="249" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="328" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="249" t="s">
-        <v>175</v>
-      </c>
-      <c r="G77" s="328" t="s">
+      <c r="H77" s="329" t="s">
         <v>142</v>
       </c>
-      <c r="H77" s="329" t="s">
+      <c r="I77" s="331" t="s">
         <v>143</v>
-      </c>
-      <c r="I77" s="331" t="s">
-        <v>144</v>
       </c>
       <c r="J77" s="240"/>
       <c r="K77" s="259"/>
       <c r="L77" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M77" s="26"/>
       <c r="N77" s="4"/>
@@ -6434,32 +6455,32 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="216" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B83" s="202"/>
       <c r="C83" s="234"/>
       <c r="D83" s="236" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="332" t="s">
         <v>145</v>
       </c>
-      <c r="E83" s="354" t="s">
+      <c r="F83" s="244" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" s="333" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="244" t="s">
-        <v>176</v>
-      </c>
-      <c r="G83" s="355" t="s">
+      <c r="H83" s="336" t="s">
         <v>147</v>
       </c>
-      <c r="H83" s="332" t="s">
+      <c r="I83" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="I83" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="J83" s="335"/>
+      <c r="J83" s="339"/>
       <c r="K83" s="259"/>
       <c r="L83" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M83" s="23"/>
       <c r="N83" s="4"/>
@@ -6484,12 +6505,12 @@
       <c r="B84" s="202"/>
       <c r="C84" s="234"/>
       <c r="D84" s="236"/>
-      <c r="E84" s="354"/>
+      <c r="E84" s="332"/>
       <c r="F84" s="245"/>
-      <c r="G84" s="356"/>
-      <c r="H84" s="333"/>
+      <c r="G84" s="334"/>
+      <c r="H84" s="337"/>
       <c r="I84" s="245"/>
-      <c r="J84" s="336"/>
+      <c r="J84" s="340"/>
       <c r="K84" s="260"/>
       <c r="L84" s="217"/>
       <c r="M84" s="23"/>
@@ -6515,12 +6536,12 @@
       <c r="B85" s="202"/>
       <c r="C85" s="234"/>
       <c r="D85" s="236"/>
-      <c r="E85" s="354"/>
+      <c r="E85" s="332"/>
       <c r="F85" s="245"/>
-      <c r="G85" s="356"/>
-      <c r="H85" s="333"/>
+      <c r="G85" s="334"/>
+      <c r="H85" s="337"/>
       <c r="I85" s="245"/>
-      <c r="J85" s="336"/>
+      <c r="J85" s="340"/>
       <c r="K85" s="260"/>
       <c r="L85" s="217"/>
       <c r="M85" s="25"/>
@@ -6546,12 +6567,12 @@
       <c r="B86" s="202"/>
       <c r="C86" s="234"/>
       <c r="D86" s="236"/>
-      <c r="E86" s="354"/>
+      <c r="E86" s="332"/>
       <c r="F86" s="245"/>
-      <c r="G86" s="356"/>
-      <c r="H86" s="333"/>
+      <c r="G86" s="334"/>
+      <c r="H86" s="337"/>
       <c r="I86" s="245"/>
-      <c r="J86" s="336"/>
+      <c r="J86" s="340"/>
       <c r="K86" s="260"/>
       <c r="L86" s="217"/>
       <c r="M86" s="25"/>
@@ -6577,12 +6598,12 @@
       <c r="B87" s="202"/>
       <c r="C87" s="234"/>
       <c r="D87" s="236"/>
-      <c r="E87" s="354"/>
+      <c r="E87" s="332"/>
       <c r="F87" s="245"/>
-      <c r="G87" s="356"/>
-      <c r="H87" s="333"/>
+      <c r="G87" s="334"/>
+      <c r="H87" s="337"/>
       <c r="I87" s="245"/>
-      <c r="J87" s="336"/>
+      <c r="J87" s="340"/>
       <c r="K87" s="260"/>
       <c r="L87" s="217"/>
       <c r="M87" s="25"/>
@@ -6608,12 +6629,12 @@
       <c r="B88" s="202"/>
       <c r="C88" s="234"/>
       <c r="D88" s="236"/>
-      <c r="E88" s="354"/>
+      <c r="E88" s="332"/>
       <c r="F88" s="330"/>
-      <c r="G88" s="357"/>
-      <c r="H88" s="334"/>
+      <c r="G88" s="335"/>
+      <c r="H88" s="338"/>
       <c r="I88" s="330"/>
-      <c r="J88" s="337"/>
+      <c r="J88" s="341"/>
       <c r="K88" s="261"/>
       <c r="L88" s="218"/>
       <c r="M88" s="25"/>
@@ -6636,30 +6657,30 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="216" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B89" s="202"/>
       <c r="C89" s="234"/>
       <c r="D89" s="236"/>
-      <c r="E89" s="343" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" s="351" t="s">
+      <c r="E89" s="347" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="355" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="336" t="s">
         <v>151</v>
       </c>
-      <c r="G89" s="332" t="s">
+      <c r="H89" s="336" t="s">
         <v>152</v>
       </c>
-      <c r="H89" s="332" t="s">
+      <c r="I89" s="342" t="s">
         <v>153</v>
-      </c>
-      <c r="I89" s="338" t="s">
-        <v>154</v>
       </c>
       <c r="J89" s="240"/>
       <c r="K89" s="259"/>
       <c r="L89" s="216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M89" s="26"/>
       <c r="N89" s="4"/>
@@ -6684,11 +6705,11 @@
       <c r="B90" s="202"/>
       <c r="C90" s="234"/>
       <c r="D90" s="236"/>
-      <c r="E90" s="343"/>
-      <c r="F90" s="352"/>
-      <c r="G90" s="352"/>
-      <c r="H90" s="333"/>
-      <c r="I90" s="339"/>
+      <c r="E90" s="347"/>
+      <c r="F90" s="356"/>
+      <c r="G90" s="356"/>
+      <c r="H90" s="337"/>
+      <c r="I90" s="343"/>
       <c r="J90" s="241"/>
       <c r="K90" s="260"/>
       <c r="L90" s="217"/>
@@ -6715,11 +6736,11 @@
       <c r="B91" s="202"/>
       <c r="C91" s="234"/>
       <c r="D91" s="236"/>
-      <c r="E91" s="343"/>
-      <c r="F91" s="352"/>
-      <c r="G91" s="352"/>
-      <c r="H91" s="333"/>
-      <c r="I91" s="339"/>
+      <c r="E91" s="347"/>
+      <c r="F91" s="356"/>
+      <c r="G91" s="356"/>
+      <c r="H91" s="337"/>
+      <c r="I91" s="343"/>
       <c r="J91" s="241"/>
       <c r="K91" s="260"/>
       <c r="L91" s="217"/>
@@ -6746,11 +6767,11 @@
       <c r="B92" s="202"/>
       <c r="C92" s="234"/>
       <c r="D92" s="236"/>
-      <c r="E92" s="343"/>
-      <c r="F92" s="352"/>
-      <c r="G92" s="352"/>
-      <c r="H92" s="333"/>
-      <c r="I92" s="339"/>
+      <c r="E92" s="347"/>
+      <c r="F92" s="356"/>
+      <c r="G92" s="356"/>
+      <c r="H92" s="337"/>
+      <c r="I92" s="343"/>
       <c r="J92" s="241"/>
       <c r="K92" s="260"/>
       <c r="L92" s="217"/>
@@ -6777,11 +6798,11 @@
       <c r="B93" s="202"/>
       <c r="C93" s="234"/>
       <c r="D93" s="236"/>
-      <c r="E93" s="343"/>
-      <c r="F93" s="352"/>
-      <c r="G93" s="352"/>
-      <c r="H93" s="333"/>
-      <c r="I93" s="339"/>
+      <c r="E93" s="347"/>
+      <c r="F93" s="356"/>
+      <c r="G93" s="356"/>
+      <c r="H93" s="337"/>
+      <c r="I93" s="343"/>
       <c r="J93" s="241"/>
       <c r="K93" s="260"/>
       <c r="L93" s="217"/>
@@ -6808,11 +6829,11 @@
       <c r="B94" s="202"/>
       <c r="C94" s="234"/>
       <c r="D94" s="236"/>
-      <c r="E94" s="343"/>
-      <c r="F94" s="352"/>
-      <c r="G94" s="353"/>
-      <c r="H94" s="333"/>
-      <c r="I94" s="340"/>
+      <c r="E94" s="347"/>
+      <c r="F94" s="356"/>
+      <c r="G94" s="357"/>
+      <c r="H94" s="337"/>
+      <c r="I94" s="344"/>
       <c r="J94" s="242"/>
       <c r="K94" s="261"/>
       <c r="L94" s="218"/>
@@ -6836,30 +6857,30 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="201" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B95" s="277"/>
-      <c r="C95" s="342"/>
+      <c r="C95" s="346"/>
       <c r="D95" s="236"/>
-      <c r="E95" s="343" t="s">
+      <c r="E95" s="347" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="F95" s="344" t="s">
+      <c r="G95" s="350" t="s">
         <v>157</v>
       </c>
-      <c r="G95" s="346" t="s">
+      <c r="H95" s="348" t="s">
         <v>158</v>
       </c>
-      <c r="H95" s="344" t="s">
+      <c r="I95" s="244" t="s">
         <v>159</v>
-      </c>
-      <c r="I95" s="244" t="s">
-        <v>160</v>
       </c>
       <c r="J95" s="246"/>
       <c r="K95" s="246"/>
-      <c r="L95" s="349" t="s">
-        <v>77</v>
+      <c r="L95" s="353" t="s">
+        <v>76</v>
       </c>
       <c r="M95" s="23"/>
       <c r="N95" s="4"/>
@@ -6882,16 +6903,16 @@
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="272"/>
       <c r="B96" s="277"/>
-      <c r="C96" s="342"/>
+      <c r="C96" s="346"/>
       <c r="D96" s="236"/>
-      <c r="E96" s="343"/>
-      <c r="F96" s="344"/>
-      <c r="G96" s="347"/>
-      <c r="H96" s="344"/>
-      <c r="I96" s="348"/>
+      <c r="E96" s="347"/>
+      <c r="F96" s="348"/>
+      <c r="G96" s="351"/>
+      <c r="H96" s="348"/>
+      <c r="I96" s="352"/>
       <c r="J96" s="267"/>
       <c r="K96" s="267"/>
-      <c r="L96" s="350"/>
+      <c r="L96" s="354"/>
       <c r="M96" s="23"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -6913,16 +6934,16 @@
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="272"/>
       <c r="B97" s="277"/>
-      <c r="C97" s="342"/>
+      <c r="C97" s="346"/>
       <c r="D97" s="236"/>
-      <c r="E97" s="343"/>
-      <c r="F97" s="344"/>
-      <c r="G97" s="347"/>
-      <c r="H97" s="344"/>
-      <c r="I97" s="348"/>
+      <c r="E97" s="347"/>
+      <c r="F97" s="348"/>
+      <c r="G97" s="351"/>
+      <c r="H97" s="348"/>
+      <c r="I97" s="352"/>
       <c r="J97" s="267"/>
       <c r="K97" s="267"/>
-      <c r="L97" s="350"/>
+      <c r="L97" s="354"/>
       <c r="M97" s="23"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -6944,16 +6965,16 @@
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="272"/>
       <c r="B98" s="277"/>
-      <c r="C98" s="342"/>
+      <c r="C98" s="346"/>
       <c r="D98" s="236"/>
-      <c r="E98" s="343"/>
-      <c r="F98" s="344"/>
-      <c r="G98" s="347"/>
-      <c r="H98" s="344"/>
-      <c r="I98" s="348"/>
+      <c r="E98" s="347"/>
+      <c r="F98" s="348"/>
+      <c r="G98" s="351"/>
+      <c r="H98" s="348"/>
+      <c r="I98" s="352"/>
       <c r="J98" s="267"/>
       <c r="K98" s="267"/>
-      <c r="L98" s="350"/>
+      <c r="L98" s="354"/>
       <c r="M98" s="23"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -6975,16 +6996,16 @@
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="272"/>
       <c r="B99" s="277"/>
-      <c r="C99" s="342"/>
+      <c r="C99" s="346"/>
       <c r="D99" s="236"/>
-      <c r="E99" s="343"/>
-      <c r="F99" s="344"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="344"/>
-      <c r="I99" s="348"/>
+      <c r="E99" s="347"/>
+      <c r="F99" s="348"/>
+      <c r="G99" s="351"/>
+      <c r="H99" s="348"/>
+      <c r="I99" s="352"/>
       <c r="J99" s="267"/>
       <c r="K99" s="267"/>
-      <c r="L99" s="350"/>
+      <c r="L99" s="354"/>
       <c r="M99" s="23"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -7004,18 +7025,18 @@
       <c r="AC99" s="4"/>
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A100" s="341"/>
+      <c r="A100" s="345"/>
       <c r="B100" s="277"/>
-      <c r="C100" s="342"/>
+      <c r="C100" s="346"/>
       <c r="D100" s="236"/>
-      <c r="E100" s="343"/>
-      <c r="F100" s="345"/>
-      <c r="G100" s="347"/>
-      <c r="H100" s="344"/>
-      <c r="I100" s="348"/>
+      <c r="E100" s="347"/>
+      <c r="F100" s="349"/>
+      <c r="G100" s="351"/>
+      <c r="H100" s="348"/>
+      <c r="I100" s="352"/>
       <c r="J100" s="267"/>
       <c r="K100" s="267"/>
-      <c r="L100" s="350"/>
+      <c r="L100" s="354"/>
       <c r="M100" s="23"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -7036,32 +7057,32 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="198" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B101" s="233"/>
       <c r="C101" s="234"/>
       <c r="D101" s="236"/>
       <c r="E101" s="237" t="s">
+        <v>166</v>
+      </c>
+      <c r="F101" s="209" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="H101" s="226" t="s">
+        <v>169</v>
+      </c>
+      <c r="I101" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="F101" s="209" t="s">
-        <v>171</v>
-      </c>
-      <c r="G101" s="209" t="s">
-        <v>172</v>
-      </c>
-      <c r="H101" s="226" t="s">
-        <v>173</v>
-      </c>
-      <c r="I101" s="214" t="s">
-        <v>174</v>
-      </c>
       <c r="J101" s="219" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K101" s="221"/>
       <c r="L101" s="217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M101" s="23"/>
       <c r="N101" s="4"/>
@@ -7238,32 +7259,32 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="201" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B107" s="202"/>
       <c r="C107" s="203"/>
       <c r="D107" s="223" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E107" s="225" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F107" s="228" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G107" s="214" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H107" s="213" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I107" s="213" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J107" s="229"/>
       <c r="K107" s="232"/>
       <c r="L107" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M107" s="23"/>
       <c r="N107" s="4"/>
@@ -7440,30 +7461,30 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="201" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B113" s="202"/>
       <c r="C113" s="203"/>
       <c r="D113" s="206" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E113" s="213" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F113" s="198"/>
       <c r="G113" s="213" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H113" s="213" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I113" s="213" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J113" s="195"/>
       <c r="K113" s="198"/>
       <c r="L113" s="198" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M113" s="23"/>
       <c r="N113" s="4"/>
@@ -7640,28 +7661,28 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="201" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B119" s="202"/>
       <c r="C119" s="203"/>
       <c r="D119" s="207"/>
       <c r="E119" s="209" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F119" s="210"/>
       <c r="G119" s="213" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H119" s="213" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I119" s="213" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J119" s="195"/>
       <c r="K119" s="198"/>
       <c r="L119" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M119" s="23"/>
       <c r="N119" s="4"/>
@@ -8646,7 +8667,7 @@
       <c r="A151" s="19"/>
       <c r="B151" s="24"/>
       <c r="C151" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" s="295"/>
       <c r="E151" s="36"/>
@@ -15795,8 +15816,8 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15820,22 +15841,22 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="F1" s="264" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="265"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="D2" s="262" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="D3" s="144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
@@ -15843,10 +15864,10 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" s="172"/>
       <c r="G4" s="1"/>
@@ -15855,7 +15876,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="298" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M4" s="299"/>
       <c r="N4" s="4"/>
@@ -15880,10 +15901,10 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="172"/>
       <c r="G5" s="1"/>
@@ -15892,7 +15913,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6">
         <f>COUNTIF(L12:L465, "Passed")</f>
@@ -15920,7 +15941,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="145"/>
       <c r="F6" s="172"/>
@@ -15930,7 +15951,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
       <c r="L6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6">
         <f>COUNTIF(L12:L465, "Failed")</f>
@@ -15958,7 +15979,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="145"/>
       <c r="F7" s="172"/>
@@ -15968,7 +15989,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="6">
         <f>COUNTIF(L11:L465, "Not Executed")</f>
@@ -15996,7 +16017,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="164" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="165"/>
       <c r="F8" s="172"/>
@@ -16006,7 +16027,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
       <c r="L8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6">
         <f>COUNTIF(L11:L465, "Out of Scope")</f>
@@ -16034,10 +16055,10 @@
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="172"/>
       <c r="G9" s="1"/>
@@ -16076,7 +16097,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
       <c r="L10" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12">
         <f>SUM(M5:M8)</f>
@@ -16101,43 +16122,43 @@
     </row>
     <row r="11" spans="1:29" s="149" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="C11" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="D11" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="E11" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="F11" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="G11" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="H11" s="147" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="147" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="147" t="s">
+      <c r="K11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="147" t="s">
+      <c r="L11" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="147" t="s">
+      <c r="M11" s="147" t="s">
         <v>15</v>
-      </c>
-      <c r="M11" s="147" t="s">
-        <v>16</v>
       </c>
       <c r="N11" s="148"/>
       <c r="O11" s="148"/>
@@ -16158,36 +16179,36 @@
     </row>
     <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="198" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="B12" s="273" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C12" s="275" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="201" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E12" s="246" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F12" s="305" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G12" s="246" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H12" s="246" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I12" s="213" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J12" s="280"/>
       <c r="K12" s="283"/>
       <c r="L12" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="143"/>
       <c r="N12" s="4"/>
@@ -16395,32 +16416,32 @@
     </row>
     <row r="19" spans="1:29" ht="114">
       <c r="A19" s="152" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B19" s="177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="272"/>
       <c r="E19" s="150" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F19" s="182" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G19" s="179" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="150" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I19" s="150" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J19" s="141"/>
       <c r="K19" s="140"/>
       <c r="L19" s="190" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="4"/>
@@ -16442,32 +16463,32 @@
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1">
       <c r="A20" s="243" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="B20" s="266"/>
       <c r="C20" s="217"/>
       <c r="D20" s="358" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E20" s="267" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="314" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G20" s="310" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H20" s="267" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I20" s="267" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J20" s="219"/>
       <c r="K20" s="247"/>
       <c r="L20" s="217" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="4"/>
@@ -16644,30 +16665,30 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
       <c r="A26" s="201" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="B26" s="202"/>
       <c r="C26" s="202"/>
       <c r="D26" s="358"/>
       <c r="E26" s="269" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F26" s="269" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G26" s="269" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H26" s="269" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I26" s="267" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J26" s="286"/>
       <c r="K26" s="240"/>
       <c r="L26" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="4"/>
@@ -16875,32 +16896,32 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1">
       <c r="A33" s="201" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="B33" s="202"/>
       <c r="C33" s="202"/>
       <c r="D33" s="266" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="269" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F33" s="269" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G33" s="269" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H33" s="269" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I33" s="246" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J33" s="286"/>
       <c r="K33" s="240"/>
       <c r="L33" s="198" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="4"/>
@@ -17108,30 +17129,30 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
       <c r="A40" s="201" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="B40" s="202"/>
       <c r="C40" s="202"/>
       <c r="D40" s="266"/>
       <c r="E40" s="246" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F40" s="246" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G40" s="246" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H40" s="246" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I40" s="246" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J40" s="240"/>
       <c r="K40" s="240"/>
       <c r="L40" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40" s="4"/>
@@ -17308,30 +17329,30 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
       <c r="A46" s="201" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="B46" s="202"/>
       <c r="C46" s="202"/>
       <c r="D46" s="359" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E46" s="267" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F46" s="277"/>
       <c r="G46" s="246" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H46" s="246" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I46" s="246" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J46" s="240"/>
       <c r="K46" s="240"/>
       <c r="L46" s="216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M46" s="27"/>
       <c r="N46" s="4"/>
@@ -17508,7 +17529,7 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
       <c r="A52" s="243" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B52" s="202"/>
       <c r="C52" s="202"/>
@@ -17696,7 +17717,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="243" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="B58" s="202"/>
       <c r="C58" s="202"/>
@@ -17884,7 +17905,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="243" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="202"/>
       <c r="C64" s="202"/>
@@ -18072,7 +18093,7 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="202"/>
       <c r="C70" s="202"/>
@@ -18291,7 +18312,7 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="323" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="326"/>
       <c r="C77" s="327"/>
@@ -18479,17 +18500,17 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="202"/>
       <c r="C83" s="234"/>
       <c r="D83" s="236"/>
-      <c r="E83" s="354"/>
+      <c r="E83" s="332"/>
       <c r="F83" s="244"/>
-      <c r="G83" s="355"/>
-      <c r="H83" s="332"/>
+      <c r="G83" s="333"/>
+      <c r="H83" s="336"/>
       <c r="I83" s="244"/>
-      <c r="J83" s="335"/>
+      <c r="J83" s="339"/>
       <c r="K83" s="259"/>
       <c r="L83" s="216"/>
       <c r="M83" s="23"/>
@@ -18515,12 +18536,12 @@
       <c r="B84" s="202"/>
       <c r="C84" s="234"/>
       <c r="D84" s="236"/>
-      <c r="E84" s="354"/>
+      <c r="E84" s="332"/>
       <c r="F84" s="245"/>
-      <c r="G84" s="356"/>
-      <c r="H84" s="333"/>
+      <c r="G84" s="334"/>
+      <c r="H84" s="337"/>
       <c r="I84" s="245"/>
-      <c r="J84" s="336"/>
+      <c r="J84" s="340"/>
       <c r="K84" s="260"/>
       <c r="L84" s="217"/>
       <c r="M84" s="23"/>
@@ -18546,12 +18567,12 @@
       <c r="B85" s="202"/>
       <c r="C85" s="234"/>
       <c r="D85" s="236"/>
-      <c r="E85" s="354"/>
+      <c r="E85" s="332"/>
       <c r="F85" s="245"/>
-      <c r="G85" s="356"/>
-      <c r="H85" s="333"/>
+      <c r="G85" s="334"/>
+      <c r="H85" s="337"/>
       <c r="I85" s="245"/>
-      <c r="J85" s="336"/>
+      <c r="J85" s="340"/>
       <c r="K85" s="260"/>
       <c r="L85" s="217"/>
       <c r="M85" s="25"/>
@@ -18577,12 +18598,12 @@
       <c r="B86" s="202"/>
       <c r="C86" s="234"/>
       <c r="D86" s="236"/>
-      <c r="E86" s="354"/>
+      <c r="E86" s="332"/>
       <c r="F86" s="245"/>
-      <c r="G86" s="356"/>
-      <c r="H86" s="333"/>
+      <c r="G86" s="334"/>
+      <c r="H86" s="337"/>
       <c r="I86" s="245"/>
-      <c r="J86" s="336"/>
+      <c r="J86" s="340"/>
       <c r="K86" s="260"/>
       <c r="L86" s="217"/>
       <c r="M86" s="25"/>
@@ -18608,12 +18629,12 @@
       <c r="B87" s="202"/>
       <c r="C87" s="234"/>
       <c r="D87" s="236"/>
-      <c r="E87" s="354"/>
+      <c r="E87" s="332"/>
       <c r="F87" s="245"/>
-      <c r="G87" s="356"/>
-      <c r="H87" s="333"/>
+      <c r="G87" s="334"/>
+      <c r="H87" s="337"/>
       <c r="I87" s="245"/>
-      <c r="J87" s="336"/>
+      <c r="J87" s="340"/>
       <c r="K87" s="260"/>
       <c r="L87" s="217"/>
       <c r="M87" s="25"/>
@@ -18639,12 +18660,12 @@
       <c r="B88" s="202"/>
       <c r="C88" s="234"/>
       <c r="D88" s="236"/>
-      <c r="E88" s="354"/>
+      <c r="E88" s="332"/>
       <c r="F88" s="330"/>
-      <c r="G88" s="357"/>
-      <c r="H88" s="334"/>
+      <c r="G88" s="335"/>
+      <c r="H88" s="338"/>
       <c r="I88" s="330"/>
-      <c r="J88" s="337"/>
+      <c r="J88" s="341"/>
       <c r="K88" s="261"/>
       <c r="L88" s="218"/>
       <c r="M88" s="25"/>
@@ -18667,16 +18688,16 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="216" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="202"/>
       <c r="C89" s="234"/>
       <c r="D89" s="236"/>
-      <c r="E89" s="343"/>
-      <c r="F89" s="351"/>
-      <c r="G89" s="332"/>
-      <c r="H89" s="332"/>
-      <c r="I89" s="338"/>
+      <c r="E89" s="347"/>
+      <c r="F89" s="355"/>
+      <c r="G89" s="336"/>
+      <c r="H89" s="336"/>
+      <c r="I89" s="342"/>
       <c r="J89" s="240"/>
       <c r="K89" s="259"/>
       <c r="L89" s="216"/>
@@ -18703,11 +18724,11 @@
       <c r="B90" s="202"/>
       <c r="C90" s="234"/>
       <c r="D90" s="236"/>
-      <c r="E90" s="343"/>
-      <c r="F90" s="352"/>
-      <c r="G90" s="352"/>
-      <c r="H90" s="333"/>
-      <c r="I90" s="339"/>
+      <c r="E90" s="347"/>
+      <c r="F90" s="356"/>
+      <c r="G90" s="356"/>
+      <c r="H90" s="337"/>
+      <c r="I90" s="343"/>
       <c r="J90" s="241"/>
       <c r="K90" s="260"/>
       <c r="L90" s="217"/>
@@ -18734,11 +18755,11 @@
       <c r="B91" s="202"/>
       <c r="C91" s="234"/>
       <c r="D91" s="236"/>
-      <c r="E91" s="343"/>
-      <c r="F91" s="352"/>
-      <c r="G91" s="352"/>
-      <c r="H91" s="333"/>
-      <c r="I91" s="339"/>
+      <c r="E91" s="347"/>
+      <c r="F91" s="356"/>
+      <c r="G91" s="356"/>
+      <c r="H91" s="337"/>
+      <c r="I91" s="343"/>
       <c r="J91" s="241"/>
       <c r="K91" s="260"/>
       <c r="L91" s="217"/>
@@ -18765,11 +18786,11 @@
       <c r="B92" s="202"/>
       <c r="C92" s="234"/>
       <c r="D92" s="236"/>
-      <c r="E92" s="343"/>
-      <c r="F92" s="352"/>
-      <c r="G92" s="352"/>
-      <c r="H92" s="333"/>
-      <c r="I92" s="339"/>
+      <c r="E92" s="347"/>
+      <c r="F92" s="356"/>
+      <c r="G92" s="356"/>
+      <c r="H92" s="337"/>
+      <c r="I92" s="343"/>
       <c r="J92" s="241"/>
       <c r="K92" s="260"/>
       <c r="L92" s="217"/>
@@ -18796,11 +18817,11 @@
       <c r="B93" s="202"/>
       <c r="C93" s="234"/>
       <c r="D93" s="236"/>
-      <c r="E93" s="343"/>
-      <c r="F93" s="352"/>
-      <c r="G93" s="352"/>
-      <c r="H93" s="333"/>
-      <c r="I93" s="339"/>
+      <c r="E93" s="347"/>
+      <c r="F93" s="356"/>
+      <c r="G93" s="356"/>
+      <c r="H93" s="337"/>
+      <c r="I93" s="343"/>
       <c r="J93" s="241"/>
       <c r="K93" s="260"/>
       <c r="L93" s="217"/>
@@ -18827,11 +18848,11 @@
       <c r="B94" s="202"/>
       <c r="C94" s="234"/>
       <c r="D94" s="236"/>
-      <c r="E94" s="343"/>
-      <c r="F94" s="352"/>
-      <c r="G94" s="353"/>
-      <c r="H94" s="333"/>
-      <c r="I94" s="340"/>
+      <c r="E94" s="347"/>
+      <c r="F94" s="356"/>
+      <c r="G94" s="357"/>
+      <c r="H94" s="337"/>
+      <c r="I94" s="344"/>
       <c r="J94" s="242"/>
       <c r="K94" s="261"/>
       <c r="L94" s="218"/>
@@ -18855,19 +18876,19 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="201" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B95" s="277"/>
-      <c r="C95" s="342"/>
+      <c r="C95" s="346"/>
       <c r="D95" s="236"/>
-      <c r="E95" s="343"/>
-      <c r="F95" s="344"/>
-      <c r="G95" s="346"/>
-      <c r="H95" s="344"/>
+      <c r="E95" s="347"/>
+      <c r="F95" s="348"/>
+      <c r="G95" s="350"/>
+      <c r="H95" s="348"/>
       <c r="I95" s="244"/>
       <c r="J95" s="246"/>
       <c r="K95" s="246"/>
-      <c r="L95" s="349"/>
+      <c r="L95" s="353"/>
       <c r="M95" s="23"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -18889,16 +18910,16 @@
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="272"/>
       <c r="B96" s="277"/>
-      <c r="C96" s="342"/>
+      <c r="C96" s="346"/>
       <c r="D96" s="236"/>
-      <c r="E96" s="343"/>
-      <c r="F96" s="344"/>
-      <c r="G96" s="347"/>
-      <c r="H96" s="344"/>
-      <c r="I96" s="348"/>
+      <c r="E96" s="347"/>
+      <c r="F96" s="348"/>
+      <c r="G96" s="351"/>
+      <c r="H96" s="348"/>
+      <c r="I96" s="352"/>
       <c r="J96" s="267"/>
       <c r="K96" s="267"/>
-      <c r="L96" s="350"/>
+      <c r="L96" s="354"/>
       <c r="M96" s="23"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -18920,16 +18941,16 @@
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="272"/>
       <c r="B97" s="277"/>
-      <c r="C97" s="342"/>
+      <c r="C97" s="346"/>
       <c r="D97" s="236"/>
-      <c r="E97" s="343"/>
-      <c r="F97" s="344"/>
-      <c r="G97" s="347"/>
-      <c r="H97" s="344"/>
-      <c r="I97" s="348"/>
+      <c r="E97" s="347"/>
+      <c r="F97" s="348"/>
+      <c r="G97" s="351"/>
+      <c r="H97" s="348"/>
+      <c r="I97" s="352"/>
       <c r="J97" s="267"/>
       <c r="K97" s="267"/>
-      <c r="L97" s="350"/>
+      <c r="L97" s="354"/>
       <c r="M97" s="23"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -18951,16 +18972,16 @@
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="272"/>
       <c r="B98" s="277"/>
-      <c r="C98" s="342"/>
+      <c r="C98" s="346"/>
       <c r="D98" s="236"/>
-      <c r="E98" s="343"/>
-      <c r="F98" s="344"/>
-      <c r="G98" s="347"/>
-      <c r="H98" s="344"/>
-      <c r="I98" s="348"/>
+      <c r="E98" s="347"/>
+      <c r="F98" s="348"/>
+      <c r="G98" s="351"/>
+      <c r="H98" s="348"/>
+      <c r="I98" s="352"/>
       <c r="J98" s="267"/>
       <c r="K98" s="267"/>
-      <c r="L98" s="350"/>
+      <c r="L98" s="354"/>
       <c r="M98" s="23"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -18982,16 +19003,16 @@
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="272"/>
       <c r="B99" s="277"/>
-      <c r="C99" s="342"/>
+      <c r="C99" s="346"/>
       <c r="D99" s="236"/>
-      <c r="E99" s="343"/>
-      <c r="F99" s="344"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="344"/>
-      <c r="I99" s="348"/>
+      <c r="E99" s="347"/>
+      <c r="F99" s="348"/>
+      <c r="G99" s="351"/>
+      <c r="H99" s="348"/>
+      <c r="I99" s="352"/>
       <c r="J99" s="267"/>
       <c r="K99" s="267"/>
-      <c r="L99" s="350"/>
+      <c r="L99" s="354"/>
       <c r="M99" s="23"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -19011,18 +19032,18 @@
       <c r="AC99" s="4"/>
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A100" s="341"/>
+      <c r="A100" s="345"/>
       <c r="B100" s="277"/>
-      <c r="C100" s="342"/>
+      <c r="C100" s="346"/>
       <c r="D100" s="236"/>
-      <c r="E100" s="343"/>
-      <c r="F100" s="345"/>
-      <c r="G100" s="347"/>
-      <c r="H100" s="344"/>
-      <c r="I100" s="348"/>
+      <c r="E100" s="347"/>
+      <c r="F100" s="349"/>
+      <c r="G100" s="351"/>
+      <c r="H100" s="348"/>
+      <c r="I100" s="352"/>
       <c r="J100" s="267"/>
       <c r="K100" s="267"/>
-      <c r="L100" s="350"/>
+      <c r="L100" s="354"/>
       <c r="M100" s="23"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -19043,7 +19064,7 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="198" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B101" s="233"/>
       <c r="C101" s="234"/>
@@ -19231,7 +19252,7 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="201" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B107" s="202"/>
       <c r="C107" s="203"/>
@@ -19419,7 +19440,7 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="201" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B113" s="202"/>
       <c r="C113" s="203"/>
@@ -19607,7 +19628,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="201" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B119" s="202"/>
       <c r="C119" s="203"/>
@@ -20603,7 +20624,7 @@
       <c r="A151" s="19"/>
       <c r="B151" s="24"/>
       <c r="C151" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" s="295"/>
       <c r="E151" s="36"/>
@@ -27544,6 +27565,7 @@
     <mergeCell ref="E101:E106"/>
     <mergeCell ref="F101:F106"/>
     <mergeCell ref="G101:G106"/>
+    <mergeCell ref="H101:H106"/>
     <mergeCell ref="I95:I100"/>
     <mergeCell ref="J95:J100"/>
     <mergeCell ref="K95:K100"/>
@@ -27553,6 +27575,7 @@
     <mergeCell ref="J89:J94"/>
     <mergeCell ref="K89:K94"/>
     <mergeCell ref="L89:L94"/>
+    <mergeCell ref="H95:H100"/>
     <mergeCell ref="I83:I88"/>
     <mergeCell ref="J83:J88"/>
     <mergeCell ref="K83:K88"/>
@@ -27577,8 +27600,6 @@
     <mergeCell ref="E95:E100"/>
     <mergeCell ref="F95:F100"/>
     <mergeCell ref="G95:G100"/>
-    <mergeCell ref="H95:H100"/>
-    <mergeCell ref="H101:H106"/>
     <mergeCell ref="L70:L76"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="B77:B82"/>
@@ -27771,7 +27792,7 @@
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="B4" s="361" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="362"/>
       <c r="D4" s="362"/>
@@ -27782,10 +27803,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="364" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="364" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="365"/>
       <c r="E5" s="365"/>
@@ -27794,31 +27815,31 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="364" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="364" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="365"/>
       <c r="E6" s="365"/>
       <c r="F6" s="365"/>
       <c r="G6" s="366"/>
       <c r="I6" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="L6" s="107" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" s="107" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="B7" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="364" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="364" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="365"/>
       <c r="E7" s="365"/>
@@ -27829,17 +27850,17 @@
         <v>15</v>
       </c>
       <c r="J7" s="109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="B8" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="364" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="364" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="365"/>
       <c r="E8" s="365"/>
@@ -27850,17 +27871,17 @@
         <v>4</v>
       </c>
       <c r="J8" s="109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="110"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="B9" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="365"/>
       <c r="E9" s="365"/>
@@ -27871,26 +27892,26 @@
         <v>0</v>
       </c>
       <c r="J9" s="111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="113" t="s">
+      <c r="N9" s="113" t="s">
         <v>33</v>
-      </c>
-      <c r="N9" s="113" t="s">
-        <v>34</v>
       </c>
       <c r="O9" s="113"/>
       <c r="P9" s="113"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="B10" s="104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="365"/>
       <c r="E10" s="365"/>
@@ -27901,21 +27922,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="41" t="s">
         <v>36</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>37</v>
       </c>
       <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="B11" s="376" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="377"/>
       <c r="D11" s="377"/>
@@ -27933,22 +27954,22 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="115" t="s">
+      <c r="G13" s="116" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="116" t="s">
-        <v>41</v>
       </c>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -28003,7 +28024,7 @@
     </row>
     <row r="15" spans="1:26" ht="18.75">
       <c r="B15" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="127">
         <f t="shared" ref="C15:G15" si="0">SUM(C14)</f>
@@ -28065,7 +28086,7 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="379" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="380"/>
       <c r="D18" s="380"/>
@@ -28075,54 +28096,54 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="381" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="380"/>
       <c r="D19" s="299"/>
       <c r="E19" s="132"/>
       <c r="F19" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="132" t="s">
         <v>45</v>
-      </c>
-      <c r="G19" s="132" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="382" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="380"/>
       <c r="D20" s="299"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
       <c r="B21" s="382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="380"/>
       <c r="D21" s="299"/>
       <c r="E21" s="133"/>
       <c r="F21" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
       <c r="B23" s="387"/>
       <c r="C23" s="383" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="386" t="s">
         <v>50</v>
-      </c>
-      <c r="D23" s="386" t="s">
-        <v>51</v>
       </c>
       <c r="E23" s="368"/>
       <c r="F23" s="368"/>
@@ -28154,13 +28175,13 @@
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
       <c r="B27" s="388" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="389" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="389" t="s">
+      <c r="D27" s="367" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" s="367" t="s">
-        <v>54</v>
       </c>
       <c r="E27" s="368"/>
       <c r="F27" s="368"/>
@@ -28192,13 +28213,13 @@
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
       <c r="B31" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="389" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="367" t="s">
         <v>55</v>
-      </c>
-      <c r="D31" s="367" t="s">
-        <v>56</v>
       </c>
       <c r="E31" s="368"/>
       <c r="F31" s="368"/>
@@ -28230,13 +28251,13 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
       <c r="B35" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="389" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="367" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="367" t="s">
-        <v>58</v>
       </c>
       <c r="E35" s="368"/>
       <c r="F35" s="368"/>
@@ -28268,13 +28289,13 @@
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
       <c r="B39" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="389" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="367" t="s">
         <v>59</v>
-      </c>
-      <c r="D39" s="367" t="s">
-        <v>60</v>
       </c>
       <c r="E39" s="368"/>
       <c r="F39" s="368"/>
@@ -28306,13 +28327,13 @@
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
       <c r="B43" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="390" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="367" t="s">
         <v>61</v>
-      </c>
-      <c r="D43" s="367" t="s">
-        <v>62</v>
       </c>
       <c r="E43" s="368"/>
       <c r="F43" s="368"/>
@@ -28344,13 +28365,13 @@
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
       <c r="B47" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="390" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="367" t="s">
         <v>63</v>
-      </c>
-      <c r="D47" s="367" t="s">
-        <v>64</v>
       </c>
       <c r="E47" s="368"/>
       <c r="F47" s="368"/>
@@ -28382,13 +28403,13 @@
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
       <c r="B51" s="388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="390" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="367" t="s">
         <v>65</v>
-      </c>
-      <c r="D51" s="367" t="s">
-        <v>66</v>
       </c>
       <c r="E51" s="368"/>
       <c r="F51" s="368"/>
